--- a/src/test/resources/Book2.xlsx
+++ b/src/test/resources/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19125" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13380" windowHeight="3390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="sheet2" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>CreateContactwithOrganizationTest</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>C:\Users\rudresh\Desktop\RUDRESH.CV.pdf</t>
+  </si>
+  <si>
+    <t>intelizign</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -931,14 +934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,6 +951,9 @@
       </c>
       <c r="B3" t="s">
         <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
